--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nielseriksen/applied_finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02951579-6C47-444B-B5A4-878547B4B27B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AD3127-9E74-7042-B2BC-94E52D2812CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="2120" windowWidth="57340" windowHeight="25920" xr2:uid="{3603C0B1-5018-0E4C-90D0-366290A0F11F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17200" windowHeight="28340" xr2:uid="{3603C0B1-5018-0E4C-90D0-366290A0F11F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
     <t>stock_value_primo</t>
   </si>
   <si>
-    <t>rebalance_from_cash_to_stocks</t>
+    <t>total_value</t>
   </si>
 </sst>
 </file>
@@ -196,6 +196,4455 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r_f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$B$2:$B$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6C8-0342-ACBD-DC3EFA5186DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>løn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$C$2:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0\ "kr."_-;\-* #,##0\ "kr."_-;_-* "-"??\ "kr."_-;_-@_-</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121551</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127628</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>134010</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140710</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>147746</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>155133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162889</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171034</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>179586</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>188565</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>197993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>207893</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>218287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>229202</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>240662</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>252695</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>265330</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>278596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>292526</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>307152</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>322510</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>338635</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>355567</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>373346</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>392013</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>411614</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>432194</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>453804</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>476494</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>500319</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>525335</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>551602</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>579182</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>608141</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>638548</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>632162</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>625841</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>619582</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>613386</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>607253</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>601180</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>595168</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>589217</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>583324</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>577491</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>571716</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>565999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6C8-0342-ACBD-DC3EFA5186DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$D$2:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$kr.-406]_-;\-* #,##0.00\ [$kr.-406]_-;_-* "-"??\ [$kr.-406]_-;_-@_-</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100293.5092352021</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>100293.5092352021</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>185930.47587485309</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>215983.03740806831</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>334788.82422224805</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>334788.82422224805</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>414985.13560944167</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>295991.36408340349</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>340866.85703972913</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>314845.62366360798</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>154241.31200291589</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>702272.60992157157</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-190015.54787772358</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1242287.1103180575</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-937518.64961283677</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1217981.520304458</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1217981.520304458</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>633989.28596510459</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>936513.76011140225</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>315797.63557013823</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>541256.03738789028</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>412088.87482444569</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>641769.06288262643</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1210674.5912583666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>245552.35767911654</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2534248.7061644816</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1440123.0676235803</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4805537.6828186661</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4812879.4735596832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C6C8-0342-ACBD-DC3EFA5186DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gearing cap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$G$2:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C6C8-0342-ACBD-DC3EFA5186DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>interest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$I$2:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0\ "kr."_-;\-* #,##0\ "kr."_-;_-* "-"??\ "kr."_-;_-@_-</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>274.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>422.43499999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>577.55741999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>740.43575999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>911.45727999999986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1091.0306799999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1279.5820799999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1477.5617199999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1685.43994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1903.7111999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2132.8967599999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2373.5419999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2626.2190999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2891.5297199999995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3170.1063399999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3462.6109199999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3769.7415999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4092.2286799999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4430.8399799999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4786.3821799999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5159.7008199999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5551.6856599999992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3815.7677962482903</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4247.9311962482907</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2668.2324432769674</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1811.7572187318835</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>525.29741999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>847.09708000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C6C8-0342-ACBD-DC3EFA5186DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stock_value_primo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$J$2:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0\ "kr."_-;\-* #,##0\ "kr."_-;_-* "-"??\ "kr."_-;_-@_-</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19788.234921052659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38025.569126904673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62488.769477900198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77959.294955959718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102655.44830864793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118206.3449298718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160303.58293889996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186573.68774472873</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>262633.37350548216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>296162.98083825962</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>277731.92852606095</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>274182.91422197176</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>309699.15515011962</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>380186.84550291608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>511561.04756856145</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>619906.1599193454</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>747058.80756768002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>924699.17160341877</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1055103.2190860368</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1342054.6966149793</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1406156.3500228012</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1591926.5811477427</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1668076.4871802065</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1750348.4422630537</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1796745.6370839037</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1631209.3833335289</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1769398.3868001993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2038121.8504171511</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1993607.4986770647</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2141414.8638058072</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2187215.3286839649</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1962767.0961235699</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2891763.9035674175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3913068.535662455</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1613958.6260004814</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2548746.1316744457</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2338868.8649701774</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3220116.3893050896</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2623678.1103005675</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3051353.2945555891</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3000847.5061349315</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3485067.0813681646</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4738182.480902045</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3616751.3445017203</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7595726.7592364112</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1963108.7260422921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C6C8-0342-ACBD-DC3EFA5186DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stock_value_ultimo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$M$2:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>_("kr."* #,##0.00_);_("kr."* \(#,##0.00\);_("kr."* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>19788.234921052659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38025.569126904673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62488.769477900198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77959.294955959718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102655.44830864793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118206.3449298718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160303.58293889996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>186573.68774472873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262633.37350548216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>296162.98083825962</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>277731.92852606095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>274182.91422197176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>309699.15515011962</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>380186.84550291608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>511561.04756856145</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>619906.1599193454</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>747058.80756768002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>924699.17160341877</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1055103.2190860368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1342054.6966149793</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1406156.3500228012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1591926.5811477427</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1773557.6692352023</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1668076.4871802065</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1758901.1266396511</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1780401.003796269</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1915551.4238980834</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1631209.3833335289</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1849594.6981873929</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1919128.0788911129</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2038482.9916333903</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2115393.630429686</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2026611.0170232728</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2510798.3940422256</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1999475.7457681224</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3105566.8181957812</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1733262.7757315608</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3828764.3299172949</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1613958.6260004814</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1964753.8973350923</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2641393.3391164751</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2599400.2647638256</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2849136.5121183195</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2922186.1319921445</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3230527.6941931122</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4053972.6097439048</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3773060.247322795</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5905447.6929870853</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3621354.9854483493</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8208769.4764845381</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2094459.2869945331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-C6C8-0342-ACBD-DC3EFA5186DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stock_exposure_goal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$N$2:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>_("kr."* #,##0.00_);_("kr."* \(#,##0.00\);_("kr."* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1686466.0606233641</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1750348.4422630537</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1796745.6370839037</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2025306.223308298</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1769398.3868001993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2038121.8504171511</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1993607.4986770647</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2141414.8638058072</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2187215.3286839649</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1962767.0961235699</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2891763.9035674175</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3913068.535662455</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4542071.2651995784</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2548746.1316744457</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2338868.8649701774</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3220116.3893050896</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2623678.1103005675</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3051353.2945555891</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3000847.5061349315</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3485067.0813681646</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4738182.480902045</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3616751.3445017203</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7595726.7592364112</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1963108.7260422921</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11712876.443372883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-C6C8-0342-ACBD-DC3EFA5186DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$P$2:$P$52</c:f>
+              <c:numCache>
+                <c:formatCode>_("kr."* #,##0.00_);_("kr."* \(#,##0.00\);_("kr."* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1673264.1600000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-C6C8-0342-ACBD-DC3EFA5186DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark1'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark1'!$A$2:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark1'!$T$2:$T$52</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$kr.-406]_-;\-* #,##0.00\ [$kr.-406]_-;_-* "-"??\ [$kr.-406]_-;_-@_-</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>19788.234921052659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38025.569126904673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62488.769477900198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77959.294955959718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102655.44830864793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118206.3449298718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160303.58293889996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>186573.68774472873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262633.37350548216</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>296162.98083825962</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>277731.92852606095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>274182.91422197176</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>309699.15515011962</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>380186.84550291608</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>511561.04756856145</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>619906.1599193454</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>747058.80756768002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>924699.17160341877</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1055103.2190860368</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1342054.6966149793</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1406156.3500228012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1591926.5811477427</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1873851.1784704044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1768369.9964154086</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1944831.6025145042</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1996384.0412043373</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2250340.2481203312</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1965998.2075557769</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2264579.8337968346</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2215119.4429745162</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2379349.8486731192</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2430239.254093294</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2180852.3290261887</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3213071.0039637974</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1809460.1978903988</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4347853.9285138389</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>795744.126118724</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5046745.8502217531</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2831940.1463049394</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2598743.1833001971</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3577907.0992278773</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2915197.9003339638</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3390392.5495062098</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3334275.0068165902</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3872296.7570757386</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5264647.2010022718</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4018612.6050019115</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8439696.3991515674</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2181231.9178247689</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13014307.159303203</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2718420.18656515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-C6C8-0342-ACBD-DC3EFA5186DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="331381183"/>
+        <c:axId val="314513359"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="331381183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314513359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="314513359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331381183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1498600</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8712D52-52E9-5145-9AEA-DC6709FEEF3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,9 +4946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520357C3-D038-8443-A57D-26C369032AA5}">
   <dimension ref="A1:Y188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,11 +5053,11 @@
         <v>100000</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" ref="D2:D26" ca="1" si="0">IF(AND(Q2, H2&gt;=0), M2-N2, 0)</f>
+        <f t="shared" ref="D2" si="0">IF(AND(Q2, H2&gt;=0), M2-N2, 0)</f>
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <f>C2*$W$5</f>
+        <f t="shared" ref="E2:E33" si="1">C2*$W$5</f>
         <v>10000</v>
       </c>
       <c r="F2" s="1">
@@ -623,7 +5072,7 @@
         <v>10000</v>
       </c>
       <c r="I2" s="1">
-        <f>H2*(B2*(1-$X$5))</f>
+        <f t="shared" ref="I2:I33" si="2">H2*(B2*(1-$X$5))</f>
         <v>134</v>
       </c>
       <c r="J2" s="1">
@@ -634,15 +5083,14 @@
         <v>20000</v>
       </c>
       <c r="L2" s="11">
-        <f ca="1">_xlfn.NORM.INV(RAND(),0.07,0.1)</f>
-        <v>5.8755146847171071E-2</v>
+        <v>-3.8882539473670957E-3</v>
       </c>
       <c r="M2" s="3">
-        <f ca="1">(1+L2)*(K2+J2)-I2</f>
-        <v>21041.102936943418</v>
+        <f>(1+L2)*(K2+J2)-I2</f>
+        <v>19788.234921052659</v>
       </c>
       <c r="N2" s="3">
-        <f ca="1">MAX(O2*M2, P2)</f>
+        <f>MAX(O2*T2, P2)</f>
         <v>1673264.1600000001</v>
       </c>
       <c r="O2" s="4">
@@ -653,16 +5101,20 @@
         <v>1673264.1600000001</v>
       </c>
       <c r="Q2" s="6" t="b">
-        <f ca="1">M2&gt;P2</f>
+        <f>M2&gt;P2</f>
         <v>0</v>
       </c>
       <c r="R2" s="3">
-        <f ca="1">E2+MAX(M2-N2, 0)</f>
+        <f>E2+MAX(M2-N2, 0)</f>
         <v>10000</v>
       </c>
       <c r="S2">
-        <f ca="1">IF(Q2,IF(H2&gt;0,MIN(H2,R2), 0), 0)</f>
-        <v>0</v>
+        <f>IF(Q2,IF(H2&gt;0,MIN(H2,R2), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <f>D2+M2</f>
+        <v>19788.234921052659</v>
       </c>
       <c r="W2" s="7"/>
       <c r="X2" s="6"/>
@@ -682,71 +5134,74 @@
         <v>105000</v>
       </c>
       <c r="D3" s="5">
-        <f ca="1">D2+IF(AND(Q3, H3&gt;=0), M3-N3, 0)</f>
+        <f>D2+IF(AND(Q3, H3&gt;=0), M3-N3, 0)</f>
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <f>C3*$W$5</f>
+        <f t="shared" si="1"/>
         <v>10500</v>
       </c>
       <c r="F3" s="1">
-        <f ca="1">IF(Q2,IF(H2&gt;0,-S2,0),E3*G3)</f>
+        <f>IF(Q2,IF(H2&gt;=0,-S2,0),E3*G3)</f>
         <v>10500</v>
       </c>
       <c r="G3" s="10">
         <v>1</v>
       </c>
       <c r="H3" s="1">
-        <f ca="1">F3+H2</f>
+        <f t="shared" ref="H3:H34" si="3">F3+H2</f>
         <v>20500</v>
       </c>
       <c r="I3" s="1">
-        <f ca="1">H3*(B3*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>274.7</v>
       </c>
       <c r="J3" s="1">
-        <f ca="1">IF(Q2, N2, M2)</f>
-        <v>21041.102936943418</v>
+        <f>IF(Q2, N2, M2)</f>
+        <v>19788.234921052659</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">E3+MAX(F3, 0)</f>
+        <f>E3+MAX(F3, 0)</f>
         <v>21000</v>
       </c>
       <c r="L3" s="11">
-        <f t="shared" ref="L3:L52" ca="1" si="1">_xlfn.NORM.INV(RAND(),0.07,0.1)</f>
-        <v>2.4330736448907597E-2</v>
+        <v>-6.0997142900729912E-2</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M52" ca="1" si="2">(1+L3)*(K3+J3)-I3</f>
-        <v>42789.293932523586</v>
+        <f t="shared" ref="M3:M52" si="4">(1+L3)*(K3+J3)-I3</f>
+        <v>38025.569126904673</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N52" ca="1" si="3">MAX(O3*M3, P3)</f>
+        <f>MAX(O3*T2, P3)</f>
         <v>1673264.1600000001</v>
       </c>
       <c r="O3" s="4">
         <v>0.9</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P52" si="4">O3*SUM($E$2:$E$52)</f>
+        <f t="shared" ref="P3:P52" si="5">O3*SUM($E$2:$E$52)</f>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q3" s="6" t="b">
-        <f t="shared" ref="Q3:Q52" ca="1" si="5">M3&gt;P3</f>
+        <f t="shared" ref="Q3:Q52" si="6">M3&gt;P3</f>
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <f t="shared" ref="R3:R52" ca="1" si="6">E3+MAX(M3-N3, 0)</f>
+        <f t="shared" ref="R3:R52" si="7">E3+MAX(M3-N3, 0)</f>
         <v>10500</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S52" ca="1" si="7">IF(Q3,IF(H3&gt;0,MIN(H3,R3), 0), 0)</f>
-        <v>0</v>
+        <f t="shared" ref="S3:S52" si="8">IF(Q3,IF(H3&gt;0,MIN(H3,R3), 0), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" ref="T3:T52" si="9">D3+M3</f>
+        <v>38025.569126904673</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
-        <f t="shared" ref="A4:A52" si="8">A3+1</f>
+        <f t="shared" ref="A4:A52" si="10">A3+1</f>
         <v>22</v>
       </c>
       <c r="B4" s="8">
@@ -756,66 +5211,69 @@
         <v>110250</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D52" ca="1" si="9">D3+IF(AND(Q4, H4&gt;=0), M4-N4, 0)</f>
+        <f t="shared" ref="D4:D52" si="11">D3+IF(AND(Q4, H4&gt;=0), M4-N4, 0)</f>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f>C4*$W$5</f>
+        <f t="shared" si="1"/>
         <v>11025</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F52" ca="1" si="10">IF(Q3,IF(H3&gt;0,-S3,0),E4*G4)</f>
+        <f t="shared" ref="F4:F52" si="12">IF(Q3,IF(H3&gt;=0,-S3,0),E4*G4)</f>
         <v>11025</v>
       </c>
       <c r="G4" s="10">
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <f ca="1">F4+H3</f>
+        <f t="shared" si="3"/>
         <v>31525</v>
       </c>
       <c r="I4" s="1">
-        <f ca="1">H4*(B4*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>422.43499999999995</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J52" ca="1" si="11">IF(Q3, N3, M3)</f>
-        <v>42789.293932523586</v>
+        <f t="shared" ref="J4:J52" si="13">IF(Q3, N3, M3)</f>
+        <v>38025.569126904673</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K52" ca="1" si="12">E4+MAX(F4, 0)</f>
+        <f t="shared" ref="K4:K52" si="14">E4+MAX(F4, 0)</f>
         <v>22050</v>
       </c>
       <c r="L4" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.3136985514897335E-2</v>
+        <v>4.7201140034237241E-2</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>69159.009433662737</v>
+        <f t="shared" si="4"/>
+        <v>62488.769477900198</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="N4:N52" si="15">MAX(O4*T3, P4)</f>
         <v>1673264.1600000001</v>
       </c>
       <c r="O4" s="4">
         <v>0.9</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q4" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R4" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>11025</v>
       </c>
       <c r="S4">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="9"/>
+        <v>62488.769477900198</v>
       </c>
       <c r="W4" t="s">
         <v>9</v>
@@ -829,7 +5287,7 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="B5" s="8">
@@ -839,66 +5297,69 @@
         <v>115763</v>
       </c>
       <c r="D5" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>C5*$W$5</f>
+        <f t="shared" si="1"/>
         <v>11576.300000000001</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>11576.300000000001</v>
       </c>
       <c r="G5" s="10">
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <f ca="1">F5+H4</f>
+        <f t="shared" si="3"/>
         <v>43101.3</v>
       </c>
       <c r="I5" s="1">
-        <f ca="1">H5*(B5*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>577.55741999999998</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>69159.009433662737</v>
+        <f t="shared" si="13"/>
+        <v>62488.769477900198</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>23152.600000000002</v>
       </c>
       <c r="L5" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.241019619460981E-2</v>
+        <v>-8.2956603160973585E-2</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>94725.889386447947</v>
+        <f t="shared" si="4"/>
+        <v>77959.294955959718</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O5" s="4">
         <v>0.9</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q5" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R5" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>11576.300000000001</v>
       </c>
       <c r="S5">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="9"/>
+        <v>77959.294955959718</v>
       </c>
       <c r="W5" s="7">
         <v>0.1</v>
@@ -912,7 +5373,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="B6" s="8">
@@ -922,72 +5383,74 @@
         <v>121551</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>C6*$W$5</f>
+        <f t="shared" si="1"/>
         <v>12155.1</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>12155.1</v>
       </c>
       <c r="G6" s="10">
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <f ca="1">F6+H5</f>
+        <f t="shared" si="3"/>
         <v>55256.4</v>
       </c>
       <c r="I6" s="1">
-        <f ca="1">H6*(B6*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>740.43575999999996</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>94725.889386447947</v>
+        <f t="shared" si="13"/>
+        <v>77959.294955959718</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>24310.2</v>
       </c>
       <c r="L6" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.9491622310086847E-2</v>
+        <v>1.1013930529071944E-2</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>130138.74727295416</v>
+        <f t="shared" si="4"/>
+        <v>102655.44830864793</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O6" s="4">
         <v>0.9</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q6" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R6" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>12155.1</v>
       </c>
       <c r="S6">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="9"/>
+        <v>102655.44830864793</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="B7" s="8">
@@ -997,72 +5460,74 @@
         <v>127628</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f>C7*$W$5</f>
+        <f t="shared" si="1"/>
         <v>12762.800000000001</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>12762.800000000001</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <f ca="1">F7+H6</f>
+        <f t="shared" si="3"/>
         <v>68019.199999999997</v>
       </c>
       <c r="I7" s="1">
-        <f ca="1">H7*(B7*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>911.45727999999986</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>130138.74727295416</v>
+        <f t="shared" si="13"/>
+        <v>102655.44830864793</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>25525.600000000002</v>
       </c>
       <c r="L7" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>7.9518360486628539E-2</v>
+        <v>-7.0706599909782925E-2</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>167131.06367432064</v>
+        <f t="shared" si="4"/>
+        <v>118206.3449298718</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O7" s="4">
         <v>0.9</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q7" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R7" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>12762.800000000001</v>
       </c>
       <c r="S7">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="9"/>
+        <v>118206.3449298718</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="B8" s="8">
@@ -1072,72 +5537,74 @@
         <v>134010</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <f>C8*$W$5</f>
+        <f t="shared" si="1"/>
         <v>13401</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>13401</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <f ca="1">F8+H7</f>
+        <f t="shared" si="3"/>
         <v>81420.2</v>
       </c>
       <c r="I8" s="1">
-        <f ca="1">H8*(B8*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>1091.0306799999998</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>167131.06367432064</v>
+        <f t="shared" si="13"/>
+        <v>118206.3449298718</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>26802</v>
       </c>
       <c r="L8" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14400169179485106</v>
+        <v>0.1130022461600593</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>220768.72225838137</v>
+        <f t="shared" si="4"/>
+        <v>160303.58293889996</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O8" s="4">
         <v>0.9</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q8" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>13401</v>
       </c>
       <c r="S8">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="9"/>
+        <v>160303.58293889996</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="B9" s="8">
@@ -1147,72 +5614,74 @@
         <v>140710</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <f>C9*$W$5</f>
+        <f t="shared" si="1"/>
         <v>14071</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>14071</v>
       </c>
       <c r="G9" s="10">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <f ca="1">F9+H8</f>
+        <f t="shared" si="3"/>
         <v>95491.199999999997</v>
       </c>
       <c r="I9" s="1">
-        <f ca="1">H9*(B9*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>1279.5820799999999</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>220768.72225838137</v>
+        <f t="shared" si="13"/>
+        <v>160303.58293889996</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>28142</v>
       </c>
       <c r="L9" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12842742784154823</v>
+        <v>-3.1431520173295507E-3</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>279598.10400020727</v>
+        <f t="shared" si="4"/>
+        <v>186573.68774472873</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O9" s="4">
         <v>0.9</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q9" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>14071</v>
       </c>
       <c r="S9">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="9"/>
+        <v>186573.68774472873</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="B10" s="8">
@@ -1222,72 +5691,74 @@
         <v>147746</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <f>C10*$W$5</f>
+        <f t="shared" si="1"/>
         <v>14774.6</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>14774.6</v>
       </c>
       <c r="G10" s="10">
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <f ca="1">F10+H9</f>
+        <f t="shared" si="3"/>
         <v>110265.8</v>
       </c>
       <c r="I10" s="1">
-        <f ca="1">H10*(B10*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>1477.5617199999999</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>279598.10400020727</v>
+        <f t="shared" si="13"/>
+        <v>186573.68774472873</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>29549.200000000001</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.1178952094966538</v>
+        <v>0.2220405621149853</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>271222.75610977714</v>
+        <f t="shared" si="4"/>
+        <v>262633.37350548216</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O10" s="4">
         <v>0.9</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q10" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>14774.6</v>
       </c>
       <c r="S10">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="9"/>
+        <v>262633.37350548216</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="B11" s="8">
@@ -1297,72 +5768,74 @@
         <v>155133</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <f>C11*$W$5</f>
+        <f t="shared" si="1"/>
         <v>15513.300000000001</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>15513.300000000001</v>
       </c>
       <c r="G11" s="10">
         <v>1</v>
       </c>
       <c r="H11" s="1">
-        <f ca="1">F11+H10</f>
+        <f t="shared" si="3"/>
         <v>125779.1</v>
       </c>
       <c r="I11" s="1">
-        <f ca="1">H11*(B11*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>1685.43994</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>271222.75610977714</v>
+        <f t="shared" si="13"/>
+        <v>262633.37350548216</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>31026.600000000002</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-5.7276476441939422E-2</v>
+        <v>1.4262915108174554E-2</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>283252.13804496411</v>
+        <f t="shared" si="4"/>
+        <v>296162.98083825962</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O11" s="4">
         <v>0.9</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q11" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>15513.300000000001</v>
       </c>
       <c r="S11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="9"/>
+        <v>296162.98083825962</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="B12" s="8">
@@ -1372,72 +5845,74 @@
         <v>162889</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f>C12*$W$5</f>
+        <f t="shared" si="1"/>
         <v>16288.900000000001</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>16288.900000000001</v>
       </c>
       <c r="G12" s="10">
         <v>1</v>
       </c>
       <c r="H12" s="1">
-        <f ca="1">F12+H11</f>
+        <f t="shared" si="3"/>
         <v>142068</v>
       </c>
       <c r="I12" s="1">
-        <f ca="1">H12*(B12*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>1903.7111999999997</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>283252.13804496411</v>
+        <f t="shared" si="13"/>
+        <v>296162.98083825962</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>32577.800000000003</v>
       </c>
       <c r="L12" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.13156627574097013</v>
+        <v>-0.14937343942234654</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>355478.79556104133</v>
+        <f t="shared" si="4"/>
+        <v>277731.92852606095</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O12" s="4">
         <v>0.9</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q12" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>16288.900000000001</v>
       </c>
       <c r="S12">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="9"/>
+        <v>277731.92852606095</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="B13" s="8">
@@ -1447,72 +5922,74 @@
         <v>171034</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f>C13*$W$5</f>
+        <f t="shared" si="1"/>
         <v>17103.400000000001</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>17103.400000000001</v>
       </c>
       <c r="G13" s="10">
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <f ca="1">F13+H12</f>
+        <f t="shared" si="3"/>
         <v>159171.4</v>
       </c>
       <c r="I13" s="1">
-        <f ca="1">H13*(B13*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>2132.8967599999996</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>355478.79556104133</v>
+        <f t="shared" si="13"/>
+        <v>277731.92852606095</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>34206.800000000003</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.7733743380894145E-3</v>
+        <v>-0.11419844439454743</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>389412.8140228155</v>
+        <f t="shared" si="4"/>
+        <v>274182.91422197176</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O13" s="4">
         <v>0.9</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q13" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R13" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>17103.400000000001</v>
       </c>
       <c r="S13">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="9"/>
+        <v>274182.91422197176</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="B14" s="8">
@@ -1522,72 +5999,74 @@
         <v>179586</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f>C14*$W$5</f>
+        <f t="shared" si="1"/>
         <v>17958.600000000002</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>17958.600000000002</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <f ca="1">F14+H13</f>
+        <f t="shared" si="3"/>
         <v>177130</v>
       </c>
       <c r="I14" s="1">
-        <f ca="1">H14*(B14*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>2373.5419999999999</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>389412.8140228155</v>
+        <f t="shared" si="13"/>
+        <v>274182.91422197176</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>35917.200000000004</v>
       </c>
       <c r="L14" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.9752394371686441E-2</v>
+        <v>6.361116419118365E-3</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>452624.25889904983</v>
+        <f t="shared" si="4"/>
+        <v>309699.15515011962</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O14" s="4">
         <v>0.9</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q14" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>17958.600000000002</v>
       </c>
       <c r="S14">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <f t="shared" si="9"/>
+        <v>309699.15515011962</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="B15" s="8">
@@ -1597,72 +6076,74 @@
         <v>188565</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <f>C15*$W$5</f>
+        <f t="shared" si="1"/>
         <v>18856.5</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>18856.5</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
       </c>
       <c r="H15" s="1">
-        <f ca="1">F15+H14</f>
+        <f t="shared" si="3"/>
         <v>195986.5</v>
       </c>
       <c r="I15" s="1">
-        <f ca="1">H15*(B15*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>2626.2190999999998</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>452624.25889904983</v>
+        <f t="shared" si="13"/>
+        <v>309699.15515011962</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>37713</v>
       </c>
       <c r="L15" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.5938288627679278E-2</v>
+        <v>0.10189887984057264</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>479895.90304181166</v>
+        <f t="shared" si="4"/>
+        <v>380186.84550291608</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O15" s="4">
         <v>0.9</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q15" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>18856.5</v>
       </c>
       <c r="S15">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <f t="shared" si="9"/>
+        <v>380186.84550291608</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="B16" s="8">
@@ -1672,72 +6153,74 @@
         <v>197993</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f>C16*$W$5</f>
+        <f t="shared" si="1"/>
         <v>19799.300000000003</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>19799.300000000003</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
       </c>
       <c r="H16" s="1">
-        <f ca="1">F16+H15</f>
+        <f t="shared" si="3"/>
         <v>215785.8</v>
       </c>
       <c r="I16" s="1">
-        <f ca="1">H16*(B16*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>2891.5297199999995</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>479895.90304181166</v>
+        <f t="shared" si="13"/>
+        <v>380186.84550291608</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>39598.600000000006</v>
       </c>
       <c r="L16" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.124302966277789</v>
+        <v>0.22551313486400457</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>581177.68101491476</v>
+        <f t="shared" si="4"/>
+        <v>511561.04756856145</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O16" s="4">
         <v>0.9</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q16" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R16" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>19799.300000000003</v>
       </c>
       <c r="S16">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <f t="shared" si="9"/>
+        <v>511561.04756856145</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="B17" s="8">
@@ -1747,72 +6230,74 @@
         <v>207893</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <f>C17*$W$5</f>
+        <f t="shared" si="1"/>
         <v>20789.300000000003</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>20789.300000000003</v>
       </c>
       <c r="G17" s="10">
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <f ca="1">F17+H16</f>
+        <f t="shared" si="3"/>
         <v>236575.09999999998</v>
       </c>
       <c r="I17" s="1">
-        <f ca="1">H17*(B17*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>3170.1063399999994</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>581177.68101491476</v>
+        <f t="shared" si="13"/>
+        <v>511561.04756856145</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>41578.600000000006</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18038643193999143</v>
+        <v>0.12643573643329442</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>731922.95817541378</v>
+        <f t="shared" si="4"/>
+        <v>619906.1599193454</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O17" s="4">
         <v>0.9</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q17" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>20789.300000000003</v>
       </c>
       <c r="S17">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="9"/>
+        <v>619906.1599193454</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
       <c r="B18" s="8">
@@ -1822,72 +6307,74 @@
         <v>218287</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <f>C18*$W$5</f>
+        <f t="shared" si="1"/>
         <v>21828.7</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>21828.7</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <f ca="1">F18+H17</f>
+        <f t="shared" si="3"/>
         <v>258403.8</v>
       </c>
       <c r="I18" s="1">
-        <f ca="1">H18*(B18*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>3462.6109199999996</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>731922.95817541378</v>
+        <f t="shared" si="13"/>
+        <v>619906.1599193454</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>43657.4</v>
       </c>
       <c r="L18" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.0721611707748578E-2</v>
+        <v>0.1310467660082239</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>795944.82586743555</v>
+        <f t="shared" si="4"/>
+        <v>747058.80756768002</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O18" s="4">
         <v>0.9</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q18" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>21828.7</v>
       </c>
       <c r="S18">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="9"/>
+        <v>747058.80756768002</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
       <c r="B19" s="8">
@@ -1897,72 +6384,74 @@
         <v>229202</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <f>C19*$W$5</f>
+        <f t="shared" si="1"/>
         <v>22920.2</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>22920.2</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <f ca="1">F19+H18</f>
+        <f t="shared" si="3"/>
         <v>281324</v>
       </c>
       <c r="I19" s="1">
-        <f ca="1">H19*(B19*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>3769.7415999999998</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>795944.82586743555</v>
+        <f t="shared" si="13"/>
+        <v>747058.80756768002</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>45840.4</v>
       </c>
       <c r="L19" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4701473482196045E-2</v>
+        <v>0.17097974665861509</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>875644.5242192531</v>
+        <f t="shared" si="4"/>
+        <v>924699.17160341877</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O19" s="4">
         <v>0.9</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q19" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>22920.2</v>
       </c>
       <c r="S19">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
+        <f t="shared" si="9"/>
+        <v>924699.17160341877</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
       <c r="B20" s="8">
@@ -1972,72 +6461,74 @@
         <v>240662</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <f>C20*$W$5</f>
+        <f t="shared" si="1"/>
         <v>24066.2</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>24066.2</v>
       </c>
       <c r="G20" s="10">
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <f ca="1">F20+H19</f>
+        <f t="shared" si="3"/>
         <v>305390.2</v>
       </c>
       <c r="I20" s="1">
-        <f ca="1">H20*(B20*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>4092.2286799999997</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>875644.5242192531</v>
+        <f t="shared" si="13"/>
+        <v>924699.17160341877</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>48132.4</v>
       </c>
       <c r="L20" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10481065978205586</v>
+        <v>8.8775774433670088E-2</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1016506.3644581113</v>
+        <f t="shared" si="4"/>
+        <v>1055103.2190860368</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O20" s="4">
         <v>0.9</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q20" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>24066.2</v>
       </c>
       <c r="S20">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="5">
+        <f t="shared" si="9"/>
+        <v>1055103.2190860368</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="B21" s="8">
@@ -2047,72 +6538,74 @@
         <v>252695</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <f>C21*$W$5</f>
+        <f t="shared" si="1"/>
         <v>25269.5</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>25269.5</v>
       </c>
       <c r="G21" s="10">
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <f ca="1">F21+H20</f>
+        <f t="shared" si="3"/>
         <v>330659.7</v>
       </c>
       <c r="I21" s="1">
-        <f ca="1">H21*(B21*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>4430.8399799999997</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1016506.3644581113</v>
+        <f t="shared" si="13"/>
+        <v>1055103.2190860368</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>50539</v>
       </c>
       <c r="L21" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.1803188459272591E-2</v>
+        <v>0.21783115129958791</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>975326.81143475126</v>
+        <f t="shared" si="4"/>
+        <v>1342054.6966149793</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O21" s="4">
         <v>0.9</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q21" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R21" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>25269.5</v>
       </c>
       <c r="S21">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="5">
+        <f t="shared" si="9"/>
+        <v>1342054.6966149793</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="B22" s="8">
@@ -2122,72 +6615,74 @@
         <v>265330</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <f>C22*$W$5</f>
+        <f t="shared" si="1"/>
         <v>26533</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>26533</v>
       </c>
       <c r="G22" s="10">
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <f ca="1">F22+H21</f>
+        <f t="shared" si="3"/>
         <v>357192.7</v>
       </c>
       <c r="I22" s="1">
-        <f ca="1">H22*(B22*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>4786.3821799999996</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>975326.81143475126</v>
+        <f t="shared" si="13"/>
+        <v>1342054.6966149793</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>53066</v>
       </c>
       <c r="L22" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-7.128337147799535E-3</v>
+        <v>1.1340979763407838E-2</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1016275.6985744711</v>
+        <f t="shared" si="4"/>
+        <v>1406156.3500228012</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O22" s="4">
         <v>0.9</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q22" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>26533</v>
       </c>
       <c r="S22">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="9"/>
+        <v>1406156.3500228012</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="B23" s="8">
@@ -2197,72 +6692,74 @@
         <v>278596</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <f>C23*$W$5</f>
+        <f t="shared" si="1"/>
         <v>27859.600000000002</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>27859.600000000002</v>
       </c>
       <c r="G23" s="10">
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <f ca="1">F23+H22</f>
+        <f t="shared" si="3"/>
         <v>385052.3</v>
       </c>
       <c r="I23" s="1">
-        <f ca="1">H23*(B23*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>5159.7008199999991</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1016275.6985744711</v>
+        <f t="shared" si="13"/>
+        <v>1406156.3500228012</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>55719.200000000004</v>
       </c>
       <c r="L23" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.0867745108345213E-2</v>
+        <v>9.2491273927409579E-2</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1153525.0079698379</v>
+        <f t="shared" si="4"/>
+        <v>1591926.5811477427</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O23" s="4">
         <v>0.9</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q23" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>27859.600000000002</v>
       </c>
       <c r="S23">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="9"/>
+        <v>1591926.5811477427</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="B24" s="8">
@@ -2272,72 +6769,74 @@
         <v>292526</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>100293.5092352021</v>
       </c>
       <c r="E24" s="1">
-        <f>C24*$W$5</f>
+        <f t="shared" si="1"/>
         <v>29252.600000000002</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>29252.600000000002</v>
       </c>
       <c r="G24" s="10">
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <f ca="1">F24+H23</f>
+        <f t="shared" si="3"/>
         <v>414304.89999999997</v>
       </c>
       <c r="I24" s="1">
-        <f ca="1">H24*(B24*(1-$X$5))</f>
+        <f t="shared" si="2"/>
         <v>5551.6856599999992</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1153525.0079698379</v>
+        <f t="shared" si="13"/>
+        <v>1591926.5811477427</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>58505.200000000004</v>
       </c>
       <c r="L24" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.11525266760576833</v>
+        <v>7.7966005755157414E-2</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1066788.8076225398</v>
+        <f t="shared" si="4"/>
+        <v>1773557.6692352023</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O24" s="4">
         <v>0.9</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q24" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="R24" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>29252.600000000002</v>
+        <f t="shared" si="7"/>
+        <v>129546.10923520211</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="4"/>
+        <f t="shared" si="8"/>
+        <v>129546.10923520211</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" si="9"/>
+        <v>1873851.1784704044</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="B25" s="8">
@@ -2347,72 +6846,74 @@
         <v>307152</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>100293.5092352021</v>
       </c>
       <c r="E25" s="1">
-        <f>C25*$W$5</f>
+        <f t="shared" si="1"/>
         <v>30715.200000000001</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>30715.200000000001</v>
+        <f t="shared" si="12"/>
+        <v>-129546.10923520211</v>
       </c>
       <c r="G25" s="10">
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <f ca="1">F25+H24</f>
-        <v>445020.1</v>
+        <f t="shared" si="3"/>
+        <v>284758.79076479783</v>
       </c>
       <c r="I25" s="1">
-        <f ca="1">H25*(B25*(1-$X$5))</f>
-        <v>5963.2693399999989</v>
+        <f t="shared" si="2"/>
+        <v>3815.7677962482903</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1066788.8076225398</v>
+        <f t="shared" si="13"/>
+        <v>1673264.1600000001</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>61430.400000000001</v>
+        <f t="shared" si="14"/>
+        <v>30715.200000000001</v>
       </c>
       <c r="L25" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.12436893518563055</v>
+        <v>-1.8830688784602007E-2</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1262571.359790531</v>
+        <f t="shared" si="4"/>
+        <v>1668076.4871802065</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1673264.1600000001</v>
+        <f t="shared" si="15"/>
+        <v>1686466.0606233641</v>
       </c>
       <c r="O25" s="4">
         <v>0.9</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q25" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>30715.200000000001</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="9"/>
+        <v>1768369.9964154086</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="B26" s="8">
@@ -2422,72 +6923,74 @@
         <v>322510</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>185930.47587485309</v>
       </c>
       <c r="E26" s="1">
-        <f>C26*$W$5</f>
+        <f t="shared" si="1"/>
         <v>32251</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>32251</v>
       </c>
       <c r="G26" s="10">
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <f ca="1">F26+H25</f>
-        <v>477271.1</v>
+        <f t="shared" si="3"/>
+        <v>317009.79076479783</v>
       </c>
       <c r="I26" s="1">
-        <f ca="1">H26*(B26*(1-$X$5))</f>
-        <v>6395.4327399999993</v>
+        <f t="shared" si="2"/>
+        <v>4247.9311962482907</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1262571.359790531</v>
+        <f t="shared" si="13"/>
+        <v>1668076.4871802065</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>64502</v>
       </c>
       <c r="L26" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.3750678036352677E-2</v>
+        <v>1.7644551679414644E-2</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1275888.3013536199</v>
+        <f t="shared" si="4"/>
+        <v>1758901.1266396511</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="15"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="O26" s="4">
         <v>0.9</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q26" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="R26" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>32251</v>
+        <f t="shared" si="7"/>
+        <v>117887.96663965099</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="4"/>
+        <f t="shared" si="8"/>
+        <v>117887.96663965099</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="9"/>
+        <v>1944831.6025145042</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="B27" s="8">
@@ -2497,72 +7000,74 @@
         <v>338635</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>215983.03740806831</v>
       </c>
       <c r="E27" s="1">
-        <f>C27*$W$5</f>
+        <f t="shared" si="1"/>
         <v>33863.5</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>33863.5</v>
+        <f t="shared" si="12"/>
+        <v>-117887.96663965099</v>
       </c>
       <c r="G27" s="10">
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <f ca="1">F27+H26</f>
-        <v>511134.6</v>
+        <f t="shared" si="3"/>
+        <v>199121.82412514684</v>
       </c>
       <c r="I27" s="1">
-        <f ca="1">H27*(B27*(1-$X$5))</f>
-        <v>6849.2036399999988</v>
+        <f t="shared" si="2"/>
+        <v>2668.2324432769674</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1275888.3013536199</v>
+        <f t="shared" si="13"/>
+        <v>1673264.1600000001</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>67727</v>
+        <f t="shared" si="14"/>
+        <v>33863.5</v>
       </c>
       <c r="L27" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.9072586627534284E-2</v>
+        <v>4.4485001338180966E-2</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1217086.8073897192</v>
+        <f t="shared" si="4"/>
+        <v>1780401.003796269</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1673264.1600000001</v>
+        <f t="shared" si="15"/>
+        <v>1750348.4422630537</v>
       </c>
       <c r="O27" s="4">
         <v>0.9</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q27" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>33863.5</v>
+        <f t="shared" si="7"/>
+        <v>63916.061533215223</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="4"/>
+        <f t="shared" si="8"/>
+        <v>63916.061533215223</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="9"/>
+        <v>1996384.0412043373</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="B28" s="8">
@@ -2572,72 +7077,74 @@
         <v>355567</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>334788.82422224805</v>
       </c>
       <c r="E28" s="1">
-        <f>C28*$W$5</f>
+        <f t="shared" si="1"/>
         <v>35556.700000000004</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>35556.700000000004</v>
+        <f t="shared" si="12"/>
+        <v>-63916.061533215223</v>
       </c>
       <c r="G28" s="10">
         <v>1</v>
       </c>
       <c r="H28" s="1">
-        <f ca="1">F28+H27</f>
-        <v>546691.29999999993</v>
+        <f t="shared" si="3"/>
+        <v>135205.76259193162</v>
       </c>
       <c r="I28" s="1">
-        <f ca="1">H28*(B28*(1-$X$5))</f>
-        <v>7325.663419999998</v>
+        <f t="shared" si="2"/>
+        <v>1811.7572187318835</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1217086.8073897192</v>
+        <f t="shared" si="13"/>
+        <v>1750348.4422630537</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>71113.400000000009</v>
+        <f t="shared" si="14"/>
+        <v>35556.700000000004</v>
       </c>
       <c r="L28" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.7830709780788251E-2</v>
+        <v>7.3608634491740724E-2</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1329608.0721550307</v>
+        <f t="shared" si="4"/>
+        <v>1915551.4238980834</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1673264.1600000001</v>
+        <f t="shared" si="15"/>
+        <v>1796745.6370839037</v>
       </c>
       <c r="O28" s="4">
         <v>0.9</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q28" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="R28" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>35556.700000000004</v>
+        <f t="shared" si="7"/>
+        <v>154362.48681417975</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="4"/>
+        <f t="shared" si="8"/>
+        <v>135205.76259193162</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="9"/>
+        <v>2250340.2481203312</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="B29" s="8">
@@ -2647,72 +7154,74 @@
         <v>373346</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>334788.82422224805</v>
       </c>
       <c r="E29" s="1">
-        <f>C29*$W$5</f>
+        <f t="shared" si="1"/>
         <v>37334.6</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>37334.6</v>
+        <f t="shared" si="12"/>
+        <v>-135205.76259193162</v>
       </c>
       <c r="G29" s="10">
         <v>1</v>
       </c>
       <c r="H29" s="1">
-        <f ca="1">F29+H28</f>
-        <v>584025.89999999991</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <f ca="1">H29*(B29*(1-$X$5))</f>
-        <v>7825.9470599999977</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1329608.0721550307</v>
+        <f t="shared" si="13"/>
+        <v>1796745.6370839037</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>74669.2</v>
+        <f t="shared" si="14"/>
+        <v>37334.6</v>
       </c>
       <c r="L29" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.137816617868051E-2</v>
+        <v>-0.1106117658586897</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1380473.2249315067</v>
+        <f t="shared" si="4"/>
+        <v>1631209.3833335289</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1673264.1600000001</v>
+        <f t="shared" si="15"/>
+        <v>2025306.223308298</v>
       </c>
       <c r="O29" s="4">
         <v>0.9</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q29" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>37334.6</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" si="9"/>
+        <v>1965998.2075557769</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="B30" s="8">
@@ -2722,72 +7231,74 @@
         <v>392013</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>414985.13560944167</v>
       </c>
       <c r="E30" s="1">
-        <f>C30*$W$5</f>
+        <f t="shared" si="1"/>
         <v>39201.300000000003</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>39201.300000000003</v>
       </c>
       <c r="G30" s="10">
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <f ca="1">F30+H29</f>
-        <v>623227.19999999995</v>
+        <f t="shared" si="3"/>
+        <v>39201.300000000003</v>
       </c>
       <c r="I30" s="1">
-        <f ca="1">H30*(B30*(1-$X$5))</f>
-        <v>8351.2444799999994</v>
+        <f t="shared" si="2"/>
+        <v>525.29741999999999</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1380473.2249315067</v>
+        <f t="shared" si="13"/>
+        <v>1631209.3833335289</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>78402.600000000006</v>
       </c>
       <c r="L30" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11574653883399458</v>
+        <v>8.2187077327272123E-2</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1619384.4077759173</v>
+        <f t="shared" si="4"/>
+        <v>1849594.6981873929</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1673264.1600000001</v>
+        <f t="shared" si="15"/>
+        <v>1769398.3868001993</v>
       </c>
       <c r="O30" s="4">
         <v>0.9</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q30" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="R30" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
+        <v>119397.61138719362</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="8"/>
         <v>39201.300000000003</v>
       </c>
-      <c r="S30" s="1">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="4"/>
+      <c r="T30" s="5">
+        <f t="shared" si="9"/>
+        <v>2264579.8337968346</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="B31" s="8">
@@ -2797,72 +7308,74 @@
         <v>411614</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>125115.35025530518</v>
+        <f t="shared" si="11"/>
+        <v>295991.36408340349</v>
       </c>
       <c r="E31" s="1">
-        <f>C31*$W$5</f>
+        <f t="shared" si="1"/>
         <v>41161.4</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>41161.4</v>
+        <f t="shared" si="12"/>
+        <v>-39201.300000000003</v>
       </c>
       <c r="G31" s="10">
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <f ca="1">F31+H30</f>
-        <v>664388.6</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f ca="1">H31*(B31*(1-$X$5))</f>
-        <v>8902.8072399999983</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1619384.4077759173</v>
+        <f t="shared" si="13"/>
+        <v>1769398.3868001993</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>82322.8</v>
+        <f t="shared" si="14"/>
+        <v>41161.4</v>
       </c>
       <c r="L31" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.204070197091744E-2</v>
+        <v>5.9963936503188625E-2</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1798379.5102553053</v>
+        <f t="shared" si="4"/>
+        <v>1919128.0788911129</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1673264.1600000001</v>
+        <f t="shared" si="15"/>
+        <v>2038121.8504171511</v>
       </c>
       <c r="O31" s="4">
         <v>0.9</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q31" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R31" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>166276.75025530517</v>
+        <f t="shared" si="7"/>
+        <v>41161.4</v>
       </c>
       <c r="S31">
-        <f t="shared" ca="1" si="7"/>
-        <v>166276.75025530517</v>
-      </c>
-      <c r="T31" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="5">
+        <f t="shared" si="9"/>
+        <v>2215119.4429745162</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="B32" s="8">
@@ -2872,72 +7385,74 @@
         <v>432194</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>307239.61342305178</v>
+        <f t="shared" si="11"/>
+        <v>340866.85703972913</v>
       </c>
       <c r="E32" s="1">
-        <f>C32*$W$5</f>
+        <f t="shared" si="1"/>
         <v>43219.4</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>-166276.75025530517</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G32" s="10">
         <v>1</v>
       </c>
       <c r="H32" s="1">
-        <f ca="1">F32+H31</f>
-        <v>498111.84974469477</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <f ca="1">H32*(B32*(1-$X$5))</f>
-        <v>6674.6987865789097</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1673264.1600000001</v>
+        <f t="shared" si="13"/>
+        <v>2038121.8504171511</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>43219.4</v>
       </c>
       <c r="L32" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.4812674788639131E-2</v>
+        <v>-2.0591653951590544E-2</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1855388.4231677467</v>
+        <f t="shared" si="4"/>
+        <v>2038482.9916333903</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1673264.1600000001</v>
+        <f t="shared" si="15"/>
+        <v>1993607.4986770647</v>
       </c>
       <c r="O32" s="4">
         <v>0.9</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q32" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R32" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>225343.66316774659</v>
+        <f t="shared" si="7"/>
+        <v>88094.892956325639</v>
       </c>
       <c r="S32">
-        <f t="shared" ca="1" si="7"/>
-        <v>225343.66316774659</v>
-      </c>
-      <c r="T32" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="5">
+        <f t="shared" si="9"/>
+        <v>2379349.8486731192</v>
+      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="B33" s="8">
@@ -2947,72 +7462,74 @@
         <v>453804</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>307239.61342305178</v>
+        <f t="shared" si="11"/>
+        <v>314845.62366360798</v>
       </c>
       <c r="E33" s="1">
-        <f>C33*$W$5</f>
+        <f t="shared" si="1"/>
         <v>45380.4</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>-225343.66316774659</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G33" s="10">
         <v>1</v>
       </c>
       <c r="H33" s="1">
-        <f ca="1">F33+H32</f>
-        <v>272768.18657694815</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
-        <f ca="1">H33*(B33*(1-$X$5))</f>
-        <v>3655.0937001311049</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1673264.1600000001</v>
+        <f t="shared" si="13"/>
+        <v>1993607.4986770647</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>45380.4</v>
       </c>
       <c r="L33" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.5354646811238474E-2</v>
+        <v>3.7472381176070248E-2</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>1671413.8404870126</v>
+        <f t="shared" si="4"/>
+        <v>2115393.630429686</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1673264.1600000001</v>
+        <f t="shared" si="15"/>
+        <v>2141414.8638058072</v>
       </c>
       <c r="O33" s="4">
         <v>0.9</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q33" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="R33" s="3">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="7"/>
         <v>45380.4</v>
       </c>
       <c r="S33">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="5">
+        <f t="shared" si="9"/>
+        <v>2430239.254093294</v>
+      </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="B34" s="8">
@@ -3022,72 +7539,74 @@
         <v>476494</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>507547.39758358384</v>
+        <f t="shared" si="11"/>
+        <v>154241.31200291589</v>
       </c>
       <c r="E34" s="1">
-        <f>C34*$W$5</f>
+        <f t="shared" ref="E34:E52" si="16">C34*$W$5</f>
         <v>47649.4</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>47649.4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G34" s="10">
         <v>1</v>
       </c>
       <c r="H34" s="1">
-        <f ca="1">F34+H33</f>
-        <v>320417.58657694818</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
-        <f ca="1">H34*(B34*(1-$X$5))</f>
-        <v>4293.5956601311054</v>
+        <f t="shared" ref="I34:I65" si="17">H34*(B34*(1-$X$5))</f>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1671413.8404870126</v>
+        <f t="shared" si="13"/>
+        <v>2141414.8638058072</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>95298.8</v>
+        <f t="shared" si="14"/>
+        <v>47649.4</v>
       </c>
       <c r="L34" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.13621841564007764</v>
+        <v>-7.421127349642101E-2</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2003077.8416053203</v>
+        <f t="shared" si="4"/>
+        <v>2026611.0170232728</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1802770.0574447883</v>
+        <f t="shared" si="15"/>
+        <v>2187215.3286839649</v>
       </c>
       <c r="O34" s="4">
         <v>0.9</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q34" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R34" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>247957.18416053205</v>
+        <f t="shared" si="7"/>
+        <v>47649.4</v>
       </c>
       <c r="S34">
-        <f t="shared" ca="1" si="7"/>
-        <v>247957.18416053205</v>
-      </c>
-      <c r="T34" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="5">
+        <f t="shared" si="9"/>
+        <v>2180852.3290261887</v>
+      </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="B35" s="8">
@@ -3097,72 +7616,74 @@
         <v>500319</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>711454.08458605153</v>
+        <f t="shared" si="11"/>
+        <v>702272.60992157157</v>
       </c>
       <c r="E35" s="1">
-        <f>C35*$W$5</f>
+        <f t="shared" si="16"/>
         <v>50031.9</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>-247957.18416053205</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G35" s="10">
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <f ca="1">F35+H34</f>
-        <v>72460.402416416124</v>
+        <f t="shared" ref="H35:H52" si="18">F35+H34</f>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
-        <f ca="1">H35*(B35*(1-$X$5))</f>
-        <v>970.96939237997594</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1802770.0574447883</v>
+        <f t="shared" si="13"/>
+        <v>2187215.3286839649</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>50031.9</v>
       </c>
       <c r="L35" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.10105552901643458</v>
+        <v>0.12227131711284946</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2039066.8700246767</v>
+        <f t="shared" si="4"/>
+        <v>2510798.3940422256</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1835160.183022209</v>
+        <f t="shared" si="15"/>
+        <v>1962767.0961235699</v>
       </c>
       <c r="O35" s="4">
         <v>0.9</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q35" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R35" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>253938.58700246768</v>
+        <f t="shared" si="7"/>
+        <v>598063.1979186557</v>
       </c>
       <c r="S35">
-        <f t="shared" ca="1" si="7"/>
-        <v>72460.402416416124</v>
-      </c>
-      <c r="T35" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="5">
+        <f t="shared" si="9"/>
+        <v>3213071.0039637974</v>
+      </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="B36" s="8">
@@ -3172,72 +7693,74 @@
         <v>525335</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>921802.97695182101</v>
+        <f t="shared" si="11"/>
+        <v>-190015.54787772358</v>
       </c>
       <c r="E36" s="1">
-        <f>C36*$W$5</f>
+        <f t="shared" si="16"/>
         <v>52533.5</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>-72460.402416416124</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="G36" s="10">
         <v>1</v>
       </c>
       <c r="H36" s="1">
-        <f ca="1">F36+H35</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <f ca="1">H36*(B36*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1835160.183022209</v>
+        <f t="shared" si="13"/>
+        <v>1962767.0961235699</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>52533.5</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1143168738531762</v>
+        <v>-7.8523523418226743E-3</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2103488.9236576962</v>
+        <f t="shared" si="4"/>
+        <v>1999475.7457681224</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1893140.0312919267</v>
+        <f t="shared" si="15"/>
+        <v>2891763.9035674175</v>
       </c>
       <c r="O36" s="4">
         <v>0.9</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q36" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R36" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>262882.39236576948</v>
+        <f t="shared" si="7"/>
+        <v>52533.5</v>
       </c>
       <c r="S36">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="5">
+        <f t="shared" si="9"/>
+        <v>1809460.1978903988</v>
+      </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="B37" s="8">
@@ -3247,72 +7770,74 @@
         <v>551602</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>1126162.9425124237</v>
+        <f t="shared" si="11"/>
+        <v>1242287.1103180575</v>
       </c>
       <c r="E37" s="1">
-        <f>C37*$W$5</f>
+        <f t="shared" si="16"/>
         <v>55160.200000000004</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G37" s="10">
         <v>1</v>
       </c>
       <c r="H37" s="1">
-        <f ca="1">F37+H36</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <f ca="1">H37*(B37*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1893140.0312919267</v>
+        <f t="shared" si="13"/>
+        <v>2891763.9035674175</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>55160.200000000004</v>
       </c>
       <c r="L37" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.8914136940232868E-2</v>
+        <v>5.3833322153196181E-2</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2043599.6556060272</v>
+        <f t="shared" si="4"/>
+        <v>3105566.8181957812</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1839239.6900454245</v>
+        <f t="shared" si="15"/>
+        <v>1673264.1600000001</v>
       </c>
       <c r="O37" s="4">
         <v>0.9</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q37" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>259520.16556060273</v>
+        <f t="shared" si="7"/>
+        <v>1487462.858195781</v>
       </c>
       <c r="S37">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="5">
+        <f t="shared" si="9"/>
+        <v>4347853.9285138389</v>
+      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="B38" s="8">
@@ -3322,72 +7847,74 @@
         <v>579182</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>1348050.0863387974</v>
+        <f t="shared" si="11"/>
+        <v>-937518.64961283677</v>
       </c>
       <c r="E38" s="1">
-        <f>C38*$W$5</f>
+        <f t="shared" si="16"/>
         <v>57918.200000000004</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G38" s="10">
         <v>1</v>
       </c>
       <c r="H38" s="1">
-        <f ca="1">F38+H37</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <f ca="1">H38*(B38*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1839239.6900454245</v>
+        <f t="shared" si="13"/>
+        <v>1673264.1600000001</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>57918.200000000004</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.16957658079297144</v>
+        <v>1.2017311287533389E-3</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2218871.4382637357</v>
+        <f t="shared" si="4"/>
+        <v>1733262.7757315608</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1996984.2944373621</v>
+        <f t="shared" si="15"/>
+        <v>3913068.535662455</v>
       </c>
       <c r="O38" s="4">
         <v>0.9</v>
       </c>
       <c r="P38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q38" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R38" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>279805.34382637363</v>
+        <f t="shared" si="7"/>
+        <v>57918.200000000004</v>
       </c>
       <c r="S38">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="5">
+        <f t="shared" si="9"/>
+        <v>795744.126118724</v>
+      </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="B39" s="8">
@@ -3397,72 +7924,74 @@
         <v>608141</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>1563218.3424126185</v>
+        <f t="shared" si="11"/>
+        <v>1217981.520304458</v>
       </c>
       <c r="E39" s="1">
-        <f>C39*$W$5</f>
+        <f t="shared" si="16"/>
         <v>60814.100000000006</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G39" s="10">
         <v>1</v>
       </c>
       <c r="H39" s="1">
-        <f ca="1">F39+H38</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <f ca="1">H39*(B39*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1996984.2944373621</v>
+        <f t="shared" si="13"/>
+        <v>3913068.535662455</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>60814.100000000006</v>
       </c>
       <c r="L39" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5623597799783505E-2</v>
+        <v>-3.6518015012028338E-2</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2151682.5607382124</v>
+        <f t="shared" si="4"/>
+        <v>3828764.3299172949</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1936514.3046643913</v>
+        <f t="shared" si="15"/>
+        <v>1673264.1600000001</v>
       </c>
       <c r="O39" s="4">
         <v>0.9</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q39" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R39" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>275982.35607382108</v>
+        <f t="shared" si="7"/>
+        <v>2216314.2699172948</v>
       </c>
       <c r="S39">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" si="9"/>
+        <v>5046745.8502217531</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="B40" s="8">
@@ -3472,72 +8001,74 @@
         <v>638548</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>1779741.1738034328</v>
+        <f t="shared" si="11"/>
+        <v>1217981.520304458</v>
       </c>
       <c r="E40" s="1">
-        <f>C40*$W$5</f>
+        <f t="shared" si="16"/>
         <v>63854.8</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G40" s="10">
         <v>1</v>
       </c>
       <c r="H40" s="1">
-        <f ca="1">F40+H39</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f ca="1">H40*(B40*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1936514.3046643913</v>
+        <f t="shared" si="13"/>
+        <v>1673264.1600000001</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>63854.8</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.2414394853099981E-2</v>
+        <v>-7.0899193915607756E-2</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2165228.3139081448</v>
+        <f t="shared" si="4"/>
+        <v>1613958.6260004814</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1948705.4825173304</v>
+        <f t="shared" si="15"/>
+        <v>4542071.2651995784</v>
       </c>
       <c r="O40" s="4">
         <v>0.9</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q40" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="R40" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>280377.63139081438</v>
+        <f t="shared" si="7"/>
+        <v>63854.8</v>
       </c>
       <c r="S40">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="5">
+        <f t="shared" si="9"/>
+        <v>2831940.1463049394</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="B41" s="8">
@@ -3547,72 +8078,74 @@
         <v>632162</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>1983466.1280355989</v>
+        <f t="shared" si="11"/>
+        <v>633989.28596510459</v>
       </c>
       <c r="E41" s="1">
-        <f>C41*$W$5</f>
+        <f t="shared" si="16"/>
         <v>63216.200000000004</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>63216.200000000004</v>
       </c>
       <c r="G41" s="10">
         <v>1</v>
       </c>
       <c r="H41" s="1">
-        <f ca="1">F41+H40</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>63216.200000000004</v>
       </c>
       <c r="I41" s="1">
-        <f ca="1">H41*(B41*(1-$X$5))</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>847.09708000000001</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1948705.4825173304</v>
+        <f t="shared" si="13"/>
+        <v>1613958.6260004814</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>63216.200000000004</v>
+        <f t="shared" si="14"/>
+        <v>126432.40000000001</v>
       </c>
       <c r="L41" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2588889530053604E-2</v>
+        <v>0.12940193614544002</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2037249.5423216608</v>
+        <f t="shared" si="4"/>
+        <v>1964753.8973350923</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1833524.5880894947</v>
+        <f t="shared" si="15"/>
+        <v>2548746.1316744457</v>
       </c>
       <c r="O41" s="4">
         <v>0.9</v>
       </c>
       <c r="P41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q41" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R41" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>266941.15423216607</v>
+        <f t="shared" si="7"/>
+        <v>63216.200000000004</v>
       </c>
       <c r="S41">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="4"/>
+        <f t="shared" si="8"/>
+        <v>63216.200000000004</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" si="9"/>
+        <v>2598743.1833001971</v>
+      </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="B42" s="8">
@@ -3622,72 +8155,74 @@
         <v>625841</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>2195493.6086993003</v>
+        <f t="shared" si="11"/>
+        <v>936513.76011140225</v>
       </c>
       <c r="E42" s="1">
-        <f>C42*$W$5</f>
+        <f t="shared" si="16"/>
         <v>62584.100000000006</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>-63216.200000000004</v>
       </c>
       <c r="G42" s="10">
         <v>1</v>
       </c>
       <c r="H42" s="1">
-        <f ca="1">F42+H41</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <f ca="1">H42*(B42*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1833524.5880894947</v>
+        <f t="shared" si="13"/>
+        <v>2548746.1316744457</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>62584.100000000006</v>
       </c>
       <c r="L42" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1182242979823013</v>
+        <v>1.1512564392421709E-2</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2120274.806637018</v>
+        <f t="shared" si="4"/>
+        <v>2641393.3391164751</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1908247.3259733163</v>
+        <f t="shared" si="15"/>
+        <v>2338868.8649701774</v>
       </c>
       <c r="O42" s="4">
         <v>0.9</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q42" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>274611.58066370164</v>
+        <f t="shared" si="7"/>
+        <v>365108.57414629764</v>
       </c>
       <c r="S42">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T42" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="5">
+        <f t="shared" si="9"/>
+        <v>3577907.0992278773</v>
+      </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="B43" s="8">
@@ -3697,72 +8232,74 @@
         <v>619582</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>2409916.9625679776</v>
+        <f t="shared" si="11"/>
+        <v>315797.63557013823</v>
       </c>
       <c r="E43" s="1">
-        <f>C43*$W$5</f>
+        <f t="shared" si="16"/>
         <v>61958.200000000004</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G43" s="10">
         <v>1</v>
       </c>
       <c r="H43" s="1">
-        <f ca="1">F43+H42</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <f ca="1">H43*(B43*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1908247.3259733163</v>
+        <f t="shared" si="13"/>
+        <v>2338868.8649701774</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>61958.200000000004</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.832987747685983E-2</v>
+        <v>8.2710330406956953E-2</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2144233.5386867719</v>
+        <f t="shared" si="4"/>
+        <v>2599400.2647638256</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1929810.1848180948</v>
+        <f t="shared" si="15"/>
+        <v>3220116.3893050896</v>
       </c>
       <c r="O43" s="4">
         <v>0.9</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q43" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R43" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>276381.55386867706</v>
+        <f t="shared" si="7"/>
+        <v>61958.200000000004</v>
       </c>
       <c r="S43">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" si="9"/>
+        <v>2915197.9003339638</v>
+      </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="B44" s="8">
@@ -3772,72 +8309,74 @@
         <v>613386</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>2622280.3722957801</v>
+        <f t="shared" si="11"/>
+        <v>541256.03738789028</v>
       </c>
       <c r="E44" s="1">
-        <f>C44*$W$5</f>
+        <f t="shared" si="16"/>
         <v>61338.600000000006</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G44" s="10">
         <v>1</v>
       </c>
       <c r="H44" s="1">
-        <f ca="1">F44+H43</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <f ca="1">H44*(B44*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1929810.1848180948</v>
+        <f t="shared" si="13"/>
+        <v>3220116.3893050896</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>61338.600000000006</v>
       </c>
       <c r="L44" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.6537123428491413E-2</v>
+        <v>-0.13174597201417704</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2123634.0972780273</v>
+        <f t="shared" si="4"/>
+        <v>2849136.5121183195</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1911270.6875502246</v>
+        <f t="shared" si="15"/>
+        <v>2623678.1103005675</v>
       </c>
       <c r="O44" s="4">
         <v>0.9</v>
       </c>
       <c r="P44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q44" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>273702.00972780271</v>
+        <f t="shared" si="7"/>
+        <v>286797.00181775203</v>
       </c>
       <c r="S44">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="5">
+        <f t="shared" si="9"/>
+        <v>3390392.5495062098</v>
+      </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="B45" s="8">
@@ -3847,72 +8386,74 @@
         <v>607253</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>2842803.0644065822</v>
+        <f t="shared" si="11"/>
+        <v>412088.87482444569</v>
       </c>
       <c r="E45" s="1">
-        <f>C45*$W$5</f>
+        <f t="shared" si="16"/>
         <v>60725.3</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G45" s="10">
         <v>1</v>
       </c>
       <c r="H45" s="1">
-        <f ca="1">F45+H44</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <f ca="1">H45*(B45*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1911270.6875502246</v>
+        <f t="shared" si="13"/>
+        <v>2623678.1103005675</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>60725.3</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11827150512995319</v>
+        <v>8.8579354645117736E-2</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2205226.9211080181</v>
+        <f t="shared" si="4"/>
+        <v>2922186.1319921445</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1984704.2289972163</v>
+        <f t="shared" si="15"/>
+        <v>3051353.2945555891</v>
       </c>
       <c r="O45" s="4">
         <v>0.9</v>
       </c>
       <c r="P45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q45" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R45" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>281247.9921108018</v>
+        <f t="shared" si="7"/>
+        <v>60725.3</v>
       </c>
       <c r="S45">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T45" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T45" s="5">
+        <f t="shared" si="9"/>
+        <v>3334275.0068165902</v>
+      </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="B46" s="8">
@@ -3922,72 +8463,74 @@
         <v>601180</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>3070265.4352035662</v>
+        <f t="shared" si="11"/>
+        <v>641769.06288262643</v>
       </c>
       <c r="E46" s="1">
-        <f>C46*$W$5</f>
+        <f t="shared" si="16"/>
         <v>60118</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G46" s="10">
         <v>1</v>
       </c>
       <c r="H46" s="1">
-        <f ca="1">F46+H45</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <f ca="1">H46*(B46*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1984704.2289972163</v>
+        <f t="shared" si="13"/>
+        <v>3051353.2945555891</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>60118</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.11238213068787009</v>
+        <v>3.8263698542180556E-2</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2274623.7079698434</v>
+        <f t="shared" si="4"/>
+        <v>3230527.6941931122</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2047161.3371728591</v>
+        <f t="shared" si="15"/>
+        <v>3000847.5061349315</v>
       </c>
       <c r="O46" s="4">
         <v>0.9</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q46" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R46" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>287580.37079698429</v>
+        <f t="shared" si="7"/>
+        <v>289798.18805818073</v>
       </c>
       <c r="S46">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="5">
+        <f t="shared" si="9"/>
+        <v>3872296.7570757386</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="B47" s="8">
@@ -3997,72 +8540,74 @@
         <v>595168</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>3311487.8737002918</v>
+        <f t="shared" si="11"/>
+        <v>1210674.5912583666</v>
       </c>
       <c r="E47" s="1">
-        <f>C47*$W$5</f>
+        <f t="shared" si="16"/>
         <v>59516.800000000003</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G47" s="10">
         <v>1</v>
       </c>
       <c r="H47" s="1">
-        <f ca="1">F47+H46</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <f ca="1">H47*(B47*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>2047161.3371728591</v>
+        <f t="shared" si="13"/>
+        <v>3000847.5061349315</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>59516.800000000003</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14503698614560973</v>
+        <v>0.32466994260034526</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2412224.3849672582</v>
+        <f t="shared" si="4"/>
+        <v>4053972.6097439048</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2171001.9464705326</v>
+        <f t="shared" si="15"/>
+        <v>3485067.0813681646</v>
       </c>
       <c r="O47" s="4">
         <v>0.9</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q47" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>300739.23849672562</v>
+        <f t="shared" si="7"/>
+        <v>628422.32837574021</v>
       </c>
       <c r="S47">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T47" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="5">
+        <f t="shared" si="9"/>
+        <v>5264647.2010022718</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="B48" s="8">
@@ -4072,72 +8617,74 @@
         <v>589217</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>3549610.6158160372</v>
+        <f t="shared" si="11"/>
+        <v>245552.35767911654</v>
       </c>
       <c r="E48" s="1">
-        <f>C48*$W$5</f>
+        <f t="shared" si="16"/>
         <v>58921.700000000004</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G48" s="10">
         <v>1</v>
       </c>
       <c r="H48" s="1">
-        <f ca="1">F48+H47</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <f ca="1">H48*(B48*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>2171001.9464705326</v>
+        <f t="shared" si="13"/>
+        <v>3485067.0813681646</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>58921.700000000004</v>
       </c>
       <c r="L48" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>6.7851549503230912E-2</v>
+        <v>6.4636622767805824E-2</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2381227.4211574537</v>
+        <f t="shared" si="4"/>
+        <v>3773060.247322795</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2143104.6790417084</v>
+        <f t="shared" si="15"/>
+        <v>4738182.480902045</v>
       </c>
       <c r="O48" s="4">
         <v>0.9</v>
       </c>
       <c r="P48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q48" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R48" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>297044.44211574533</v>
+        <f t="shared" si="7"/>
+        <v>58921.700000000004</v>
       </c>
       <c r="S48">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="5">
+        <f t="shared" si="9"/>
+        <v>4018612.6050019115</v>
+      </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="B49" s="8">
@@ -4147,72 +8694,74 @@
         <v>583324</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>3779411.9119571075</v>
+        <f t="shared" si="11"/>
+        <v>2534248.7061644816</v>
       </c>
       <c r="E49" s="1">
-        <f>C49*$W$5</f>
+        <f t="shared" si="16"/>
         <v>58332.4</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G49" s="10">
         <v>1</v>
       </c>
       <c r="H49" s="1">
-        <f ca="1">F49+H48</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <f ca="1">H49*(B49*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>2143104.6790417084</v>
+        <f t="shared" si="13"/>
+        <v>4738182.480902045</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>58332.4</v>
       </c>
       <c r="L49" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.386947203189305E-2</v>
+        <v>0.23119553251057387</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2298012.9614107008</v>
+        <f t="shared" si="4"/>
+        <v>5905447.6929870853</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2068211.6652696307</v>
+        <f t="shared" si="15"/>
+        <v>3616751.3445017203</v>
       </c>
       <c r="O49" s="4">
         <v>0.9</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q49" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>288133.6961410701</v>
+        <f t="shared" si="7"/>
+        <v>2347028.748485365</v>
       </c>
       <c r="S49">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="5">
+        <f t="shared" si="9"/>
+        <v>8439696.3991515674</v>
+      </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="B50" s="8">
@@ -4222,72 +8771,74 @@
         <v>577491</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>3995670.1479300107</v>
+        <f t="shared" si="11"/>
+        <v>-1440123.0676235803</v>
       </c>
       <c r="E50" s="1">
-        <f>C50*$W$5</f>
+        <f t="shared" si="16"/>
         <v>57749.100000000006</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G50" s="10">
         <v>1</v>
       </c>
       <c r="H50" s="1">
-        <f ca="1">F50+H49</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <f ca="1">H50*(B50*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>2068211.6652696307</v>
+        <f t="shared" si="13"/>
+        <v>3616751.3445017203</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>57749.100000000006</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7225903251680205E-2</v>
+        <v>-1.4463315450919154E-2</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2162582.359729033</v>
+        <f t="shared" si="4"/>
+        <v>3621354.9854483493</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1946324.1237561298</v>
+        <f t="shared" si="15"/>
+        <v>7595726.7592364112</v>
       </c>
       <c r="O50" s="4">
         <v>0.9</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q50" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R50" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>274007.33597290318</v>
+        <f t="shared" si="7"/>
+        <v>57749.100000000006</v>
       </c>
       <c r="S50">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T50" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="5">
+        <f t="shared" si="9"/>
+        <v>2181231.9178247689</v>
+      </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>69</v>
       </c>
       <c r="B51" s="8">
@@ -4297,72 +8848,74 @@
         <v>571716</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>4198148.3087671008</v>
+        <f t="shared" si="11"/>
+        <v>4805537.6828186661</v>
       </c>
       <c r="E51" s="1">
-        <f>C51*$W$5</f>
+        <f t="shared" si="16"/>
         <v>57171.600000000006</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G51" s="10">
         <v>1</v>
       </c>
       <c r="H51" s="1">
-        <f ca="1">F51+H50</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <f ca="1">H51*(B51*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1946324.1237561298</v>
+        <f t="shared" si="13"/>
+        <v>7595726.7592364112</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>57171.600000000006</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0624372371936405E-2</v>
+        <v>7.2635371744776536E-2</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2024781.6083708971</v>
+        <f t="shared" si="4"/>
+        <v>8208769.4764845381</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1822303.4475338075</v>
+        <f t="shared" si="15"/>
+        <v>1963108.7260422921</v>
       </c>
       <c r="O51" s="4">
         <v>0.9</v>
       </c>
       <c r="P51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q51" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R51" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>259649.76083708965</v>
+        <f t="shared" si="7"/>
+        <v>6302832.3504422456</v>
       </c>
       <c r="S51">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="5">
+        <f t="shared" si="9"/>
+        <v>13014307.159303203</v>
+      </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="B52" s="8">
@@ -4372,68 +8925,70 @@
         <v>565999</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" ca="1" si="9"/>
-        <v>4403089.2336314619</v>
+        <f t="shared" si="11"/>
+        <v>-4812879.4735596832</v>
       </c>
       <c r="E52" s="1">
-        <f>C52*$W$5</f>
+        <f t="shared" si="16"/>
         <v>56599.9</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G52" s="10">
         <v>1</v>
       </c>
       <c r="H52" s="1">
-        <f ca="1">F52+H51</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I52" s="1">
-        <f ca="1">H52*(B52*(1-$X$5))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>1822303.4475338075</v>
+        <f t="shared" si="13"/>
+        <v>1963108.7260422921</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="14"/>
         <v>56599.9</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.0747563643230528E-2</v>
+        <v>3.7010616278209611E-2</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2049409.2486436104</v>
+        <f t="shared" si="4"/>
+        <v>2094459.2869945331</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>1844468.3237792493</v>
+        <f t="shared" si="15"/>
+        <v>11712876.443372883</v>
       </c>
       <c r="O52" s="4">
         <v>0.9</v>
       </c>
       <c r="P52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1673264.1600000001</v>
       </c>
       <c r="Q52" s="6" t="b">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="R52" s="3">
-        <f t="shared" ca="1" si="6"/>
-        <v>261540.82486436106</v>
+        <f t="shared" si="7"/>
+        <v>56599.9</v>
       </c>
       <c r="S52">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T52" s="4"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="5">
+        <f t="shared" si="9"/>
+        <v>-2718420.18656515</v>
+      </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C53" s="9"/>
@@ -6205,5 +10760,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>